--- a/stress_strain_excel/stress_strain_20210703.xlsx
+++ b/stress_strain_excel/stress_strain_20210703.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8253A0C-967C-6140-B18C-3BB47FBF497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403010E6-CBC4-FF42-B03C-E9D586495E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="20400" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="3680" windowWidth="19300" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -184,26 +184,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -823,10 +813,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4430-FF45-8B25-610E58356D83}"/>
+              <c16:uniqueId val="{00000000-10A2-8F49-9374-A4B3DFEC0546}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -838,11 +828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1012999823"/>
-        <c:axId val="307218368"/>
+        <c:axId val="401761168"/>
+        <c:axId val="401762816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1012999823"/>
+        <c:axId val="401761168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,12 +889,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307218368"/>
+        <c:crossAx val="401762816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307218368"/>
+        <c:axId val="401762816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +951,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1012999823"/>
+        <c:crossAx val="401761168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1578,22 +1568,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5C2A60-32F8-8247-ADCA-E963D0CB000A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3E7736-029A-2E4B-BE6E-D3764301B865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1928,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C101" sqref="C1:D101"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/stress_strain_excel/stress_strain_20210703.xlsx
+++ b/stress_strain_excel/stress_strain_20210703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403010E6-CBC4-FF42-B03C-E9D586495E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DE82D-0373-5249-9633-92F5ABD2D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="3680" windowWidth="19300" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,6 +195,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$101</c:f>
@@ -838,22 +882,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -914,8 +974,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -963,6 +1067,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1927,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/stress_strain_excel/stress_strain_20210703.xlsx
+++ b/stress_strain_excel/stress_strain_20210703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DE82D-0373-5249-9633-92F5ABD2D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B1786-7344-F24A-8E60-A832BD19801D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="3680" windowWidth="19300" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,14 +1704,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
